--- a/Model/tabelka.xlsx
+++ b/Model/tabelka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TeaExpress\Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{2919583D-B45C-4047-BAC2-27D75D2D939D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{A6C37CC3-571D-4600-B219-1446F5BD6526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{BD65459D-E971-4635-998C-38B7F883921D}"/>
   </bookViews>
@@ -90,50 +90,18 @@
     <t>12</t>
   </si>
   <si>
-    <t>Zebatka GT2</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>Wał fi5</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>spychacz</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
-    <r>
-      <t>Silnik krokowy 28byj-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SWGDT"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>48</t>
-    </r>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -170,53 +138,18 @@
     <t>23</t>
   </si>
   <si>
-    <t>Krańcówka</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>Zawór</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
-    <t>wałek fi5 krótki</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Koło pasowe bez </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SWGDT"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>zębów</t>
-    </r>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
-    <t>Płyta grzewcza</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -236,9 +169,6 @@
   </si>
   <si>
     <t>31</t>
-  </si>
-  <si>
-    <t>Magazynek</t>
   </si>
   <si>
     <t>32</t>
@@ -276,15 +206,9 @@
     <t>33</t>
   </si>
   <si>
-    <t>Łącznik serwa</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
-    <t>Serwo LF20MG</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
@@ -297,9 +221,6 @@
     <t>37</t>
   </si>
   <si>
-    <t>Serwo SG90</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -381,9 +302,6 @@
     <t>52</t>
   </si>
   <si>
-    <t>Uszczelka</t>
-  </si>
-  <si>
     <t>53</t>
   </si>
   <si>
@@ -405,12 +323,6 @@
     <t>Rura rezerwuaru</t>
   </si>
   <si>
-    <t>Pasek zębaty GT2</t>
-  </si>
-  <si>
-    <t>Pasek zębaty spychacza GT2</t>
-  </si>
-  <si>
     <t>Nazwa</t>
   </si>
   <si>
@@ -453,9 +365,6 @@
     <t>TE.00.04</t>
   </si>
   <si>
-    <t>Siłownik elektryczny LA10</t>
-  </si>
-  <si>
     <t>Tłok do siłownika</t>
   </si>
   <si>
@@ -495,9 +404,6 @@
     <t>DIN 620</t>
   </si>
   <si>
-    <t>Łożysko zwykłe MR105</t>
-  </si>
-  <si>
     <t>TE.00.10</t>
   </si>
   <si>
@@ -562,6 +468,100 @@
   </si>
   <si>
     <t>Guma</t>
+  </si>
+  <si>
+    <t>Siłownik elektryczny Wallstech LA10</t>
+  </si>
+  <si>
+    <t>Koło zębate OEM 20T GT2</t>
+  </si>
+  <si>
+    <t>Wał fi5x110 OEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Łożysko kulkowe ABC-RC MR105 </t>
+  </si>
+  <si>
+    <t>spychacz suszu</t>
+  </si>
+  <si>
+    <r>
+      <t>Silnik krokowy OEM 28byj-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>48</t>
+    </r>
+  </si>
+  <si>
+    <t>Pasek zębaty OEM GT2 6mm</t>
+  </si>
+  <si>
+    <t>Krańcówka OEM WK625</t>
+  </si>
+  <si>
+    <t>Zawór S0626AV-D</t>
+  </si>
+  <si>
+    <t>wałek fi5x23 OEM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Koło pasowe GT2 bez </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>zębów ABC-RC</t>
+    </r>
+  </si>
+  <si>
+    <t>Płyta grzewcza WEBO 1000W</t>
+  </si>
+  <si>
+    <t>Magazynek na susz</t>
+  </si>
+  <si>
+    <t>Serwosilnik PowerHD LF20MG</t>
+  </si>
+  <si>
+    <t>Łącznik serwosilnika</t>
+  </si>
+  <si>
+    <t>Serwo TowerPro SG90</t>
+  </si>
+  <si>
+    <t>Pasek zębaty spychacza GT2 6mm</t>
+  </si>
+  <si>
+    <t>Uszczelka O Ring</t>
   </si>
 </sst>
 </file>
@@ -658,7 +658,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{98201ABB-7442-47CC-8CA5-66214B2E91F0}" diskRevisions="1" revisionId="96" version="5">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{935978F6-0ADE-4C33-A628-938F35D92CBD}" diskRevisions="1" revisionId="114" version="6">
   <header guid="{1A5A0F7D-CD47-4901-A930-32F9DDAE5B55}" dateTime="2024-05-29T21:15:06" maxSheetId="2" userName="MRPC" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -680,6 +680,11 @@
     </sheetIdMap>
   </header>
   <header guid="{98201ABB-7442-47CC-8CA5-66214B2E91F0}" dateTime="2024-05-29T22:17:22" maxSheetId="2" userName="MRPC" r:id="rId5" minRId="50" maxRId="96">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{935978F6-0ADE-4C33-A628-938F35D92CBD}" dateTime="2024-06-08T12:27:16" maxSheetId="2" userName="MRPC" r:id="rId6" minRId="97" maxRId="114">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -1583,6 +1588,307 @@
     <nc r="E53" t="inlineStr">
       <is>
         <t>Guma</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="97" sId="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>Siłownik elektryczny LA10</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>Siłownik elektryczny Wallstech LA10</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="98" sId="1">
+    <oc r="B12" t="inlineStr">
+      <is>
+        <t>Zebatka GT2</t>
+      </is>
+    </oc>
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>Koło zębate OEM 20T GT2</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="99" sId="1">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <t>Wał fi5</t>
+      </is>
+    </oc>
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>Wał fi5x110 OEM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="100" sId="1">
+    <oc r="B14" t="inlineStr">
+      <is>
+        <t>Łożysko zwykłe MR105</t>
+      </is>
+    </oc>
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t xml:space="preserve">Łożysko kulkowe ABC-RC MR105 </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="101" sId="1">
+    <oc r="B15" t="inlineStr">
+      <is>
+        <t>spychacz</t>
+      </is>
+    </oc>
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>spychacz suszu</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="102" sId="1">
+    <oc r="B16" t="inlineStr">
+      <is>
+        <r>
+          <t>Silnik krokowy 28byj-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="SWGDT"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t>48</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B16" t="inlineStr">
+      <is>
+        <r>
+          <t>Silnik krokowy OEM 28byj-</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="SWGDT"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t>48</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="103" sId="1">
+    <oc r="B20" t="inlineStr">
+      <is>
+        <t>Pasek zębaty GT2</t>
+      </is>
+    </oc>
+    <nc r="B20" t="inlineStr">
+      <is>
+        <t>Pasek zębaty OEM GT2 6mm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="104" sId="1">
+    <oc r="B23" t="inlineStr">
+      <is>
+        <t>Krańcówka</t>
+      </is>
+    </oc>
+    <nc r="B23" t="inlineStr">
+      <is>
+        <t>Krańcówka OEM WK625</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="105" sId="1">
+    <oc r="B24" t="inlineStr">
+      <is>
+        <t>Zawór</t>
+      </is>
+    </oc>
+    <nc r="B24" t="inlineStr">
+      <is>
+        <t>Zawór S0626AV-D</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="106" sId="1">
+    <oc r="B25" t="inlineStr">
+      <is>
+        <t>wałek fi5 krótki</t>
+      </is>
+    </oc>
+    <nc r="B25" t="inlineStr">
+      <is>
+        <t>wałek fi5x23 OEM</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="107" sId="1">
+    <oc r="B26" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Koło pasowe bez </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="SWGDT"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t>zębów</t>
+        </r>
+      </is>
+    </oc>
+    <nc r="B26" t="inlineStr">
+      <is>
+        <r>
+          <t xml:space="preserve">Koło pasowe GT2 bez </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="SWGDT"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="13"/>
+            <color theme="1"/>
+            <rFont val="Century Gothic"/>
+            <family val="2"/>
+          </rPr>
+          <t>zębów ABC-RC</t>
+        </r>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="108" sId="1">
+    <oc r="B27" t="inlineStr">
+      <is>
+        <t>Płyta grzewcza</t>
+      </is>
+    </oc>
+    <nc r="B27" t="inlineStr">
+      <is>
+        <t>Płyta grzewcza WEBO 1000W</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="109" sId="1">
+    <oc r="B31" t="inlineStr">
+      <is>
+        <t>Magazynek</t>
+      </is>
+    </oc>
+    <nc r="B31" t="inlineStr">
+      <is>
+        <t>Magazynek na susz</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="110" sId="1">
+    <oc r="B35" t="inlineStr">
+      <is>
+        <t>Serwo LF20MG</t>
+      </is>
+    </oc>
+    <nc r="B35" t="inlineStr">
+      <is>
+        <t>Serwosilnik PowerHD LF20MG</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="111" sId="1">
+    <oc r="B34" t="inlineStr">
+      <is>
+        <t>Łącznik serwa</t>
+      </is>
+    </oc>
+    <nc r="B34" t="inlineStr">
+      <is>
+        <t>Łącznik serwosilnika</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="112" sId="1">
+    <oc r="B38" t="inlineStr">
+      <is>
+        <t>Serwo SG90</t>
+      </is>
+    </oc>
+    <nc r="B38" t="inlineStr">
+      <is>
+        <t>Serwo TowerPro SG90</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="113" sId="1">
+    <oc r="B47" t="inlineStr">
+      <is>
+        <t>Pasek zębaty spychacza GT2</t>
+      </is>
+    </oc>
+    <nc r="B47" t="inlineStr">
+      <is>
+        <t>Pasek zębaty spychacza GT2 6mm</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="114" sId="1">
+    <oc r="B53" t="inlineStr">
+      <is>
+        <t>Uszczelka</t>
+      </is>
+    </oc>
+    <nc r="B53" t="inlineStr">
+      <is>
+        <t>Uszczelka O Ring</t>
       </is>
     </nc>
   </rcc>
@@ -1892,8 +2198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50535B18-D632-41E5-8940-5813519D9AF1}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1908,178 +2214,178 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C1" s="4">
         <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="C5" s="4">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C6" s="4">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C7" s="4">
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4">
         <v>8</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C10" s="4">
         <v>4</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -2090,152 +2396,152 @@
     </row>
     <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="C13" s="4">
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -2246,46 +2552,46 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>64</v>
+        <v>153</v>
       </c>
       <c r="C23" s="4">
         <v>1</v>
@@ -2296,82 +2602,82 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C28" s="4">
         <v>1</v>
@@ -2382,28 +2688,28 @@
     </row>
     <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -2414,10 +2720,10 @@
     </row>
     <row r="31" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="C31" s="4">
         <v>2</v>
@@ -2428,28 +2734,28 @@
     </row>
     <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -2460,10 +2766,10 @@
     </row>
     <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -2474,46 +2780,46 @@
     </row>
     <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F35" s="4"/>
     </row>
     <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -2524,58 +2830,58 @@
     </row>
     <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
     </row>
     <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
     </row>
     <row r="41" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
@@ -2586,53 +2892,53 @@
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C42" s="4">
         <v>1</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C43" s="4">
         <v>6</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
     </row>
     <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4">
         <v>1</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F44" s="4"/>
     </row>
@@ -2641,7 +2947,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="C45" s="4">
         <v>4</v>
@@ -2661,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F46" s="4"/>
     </row>
@@ -2679,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F47" s="4"/>
     </row>
@@ -2697,7 +3003,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -2713,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -2729,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -2739,25 +3045,25 @@
         <v>8</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -2777,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F53" s="4"/>
     </row>
@@ -2789,16 +3095,16 @@
         <v>4</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="F54" s="4"/>
     </row>
@@ -2813,10 +3119,10 @@
         <v>1</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F55" s="4"/>
     </row>
@@ -2831,31 +3137,31 @@
         <v>1</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
